--- a/medicine/Enfance/Yves_Pinguilly/Yves_Pinguilly.xlsx
+++ b/medicine/Enfance/Yves_Pinguilly/Yves_Pinguilly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yves Pinguilly est un auteur français né le 5 avril 1944 à Brest.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un ouvrier en métallurgie, il se destine initialement à occuper le même emploi que son père, et entre à 14 ans comme apprenti aux Chantiers de la Loire à Nantes.
 Il découvre alors la poésie (Rimbaud, Baudelaire, Blake, Cendrars…) et décide finalement de devenir écrivain. Il embarque comme « novice » sur un cargo, et naviguera plusieurs années à travers le monde. À seize ans et demi, il bouclera son premier tour du monde.
-De retour en France, il s'installe à Paris, où il se marie et fait ses premières publications. Il passe son Certificat d’Aptitude aux Fonctions de Bibliothécaire, et travaillera plusieurs années dans les bibliothèques de la banlieue parisienne[1].
-Il exerce diverses professions, dont celle d'animateur culturel — notamment à la Maison de la culture du Havre —, et consultant pour des organisations internationales (Agence de la francophonie, Ligue internationale de l’enseignement, Unesco…)[2].
-En 1984, il est le premier vice-président de la Charte des auteurs et illustrateurs pour la jeunesse, lorsque celle-ci se constitue en association loi 1901, sous la présidence de Christian Grenier[3].
+De retour en France, il s'installe à Paris, où il se marie et fait ses premières publications. Il passe son Certificat d’Aptitude aux Fonctions de Bibliothécaire, et travaillera plusieurs années dans les bibliothèques de la banlieue parisienne.
+Il exerce diverses professions, dont celle d'animateur culturel — notamment à la Maison de la culture du Havre —, et consultant pour des organisations internationales (Agence de la francophonie, Ligue internationale de l’enseignement, Unesco…).
+En 1984, il est le premier vice-président de la Charte des auteurs et illustrateurs pour la jeunesse, lorsque celle-ci se constitue en association loi 1901, sous la présidence de Christian Grenier.
 Au fil des années il a écrit plus de cent cinquante titres, dont une majorité d'œuvres pour l’enfance et la jeunesse, dont la moitié en rapport avec l'Afrique subsaharienne.
 </t>
         </is>
@@ -547,16 +561,52 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il a reçu de nombreuses distinctions littéraires, dont :
 Prix Sobrier-Arnould de l’Académie française en 1980 pour L’été des confidences et des confitures
-le premier Prix graphique de la Foire de Bologne en 1983[4]  pour il était une fois les mots ;
+le premier Prix graphique de la Foire de Bologne en 1983  pour il était une fois les mots ;
 le Prix du livre romantique (Festival de Cabourg) en 1987 pour L’Amour baobab ;
 le Prix Livre Mon Ami en 1997 pour  Le Ballon d’or ;
-le Prix Littéraire Fetkann! (catégorie « prix spécial ») en 2004 pour Un tirailleur en enfer : Verdun 1916.
-Romans et récits
-Yves Pinguilly, L’été des confidences et des confitures, Paris, Éditions de l'Amitié, coll. « Bibliothèque de l'amitié », 1979, 149 p. (ISBN 2-7002-0135-3)
+le Prix Littéraire Fetkann! (catégorie « prix spécial ») en 2004 pour Un tirailleur en enfer : Verdun 1916.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yves_Pinguilly</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yves_Pinguilly</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans et récits</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Yves Pinguilly, L’été des confidences et des confitures, Paris, Éditions de l'Amitié, coll. « Bibliothèque de l'amitié », 1979, 149 p. (ISBN 2-7002-0135-3)
 Yves Pinguilly, La folie mauve des lilas, Paris, Éditions de l'Amitié, coll. « Les Chemins de l'amitié », 1980, 220 p. (ISBN 2-7002-0172-8)
 Yves Pinguilly, Le Cœur qui pique les yeux, Lyon, Chardon bleu, coll. « Grands caractères », 1986, 181 p. (ISBN 2-86833-012-6)
 Yves Pinguilly, L'Amour baobab, Paris, Librairie générale française, coll. « Le Livre de poche », 1987, 95 p. (ISBN 2-253-04339-7)
@@ -615,9 +665,43 @@
 Yves Pinguilly, La maîtresse en détresse, Gargantua, 2012
 Yves Pinguilly, La fleur au fusil, Paris, Oskar, 2014
 Yves Pinguilly, Le bleu du ciel biani biani, Paris, Oslo, coll. « Le temps qui passe », 2010, avec Adrienne Yabouza
-Yves Pinguilly, Même les poissons du fleuve pleuraient, Le Jasmin, 2014
-Contes et légendes
-Yves Pinguilly, Le lièvre et la soupe au pili-pili : et autres contes d'Afrique, Paris, Rageot, coll. « Cascade contes », 1994, 107 p. (ISBN 2-7002-2145-1)
+Yves Pinguilly, Même les poissons du fleuve pleuraient, Le Jasmin, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yves_Pinguilly</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yves_Pinguilly</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Contes et légendes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Yves Pinguilly, Le lièvre et la soupe au pili-pili : et autres contes d'Afrique, Paris, Rageot, coll. « Cascade contes », 1994, 107 p. (ISBN 2-7002-2145-1)
 Yves Pinguilly, Contes et légendes de Bretagne, Paris, Nathan, coll. « Contes et légendes », 1996, 194 p. (ISBN 2-09-282300-0)
 Yves Pinguilly, Contes et légendes l’Afrique d'Ouest en Est, Paris, Nathan, coll. « Contes et légendes », 1997, 230 p. (ISBN 2-09-282309-4)
 Yves Pinguilly, Contes et légendes, la Corne de l'Afrique : paroles douces comme la soie et semelles de vent, Paris, Nathan, coll. « Contes et légendes », 2002, 230 p. (ISBN 2-09-282362-0)
@@ -625,9 +709,43 @@
 Yves Pinguilly, Sous l’arbre à palabres : contes d'Afrique de l'Ouest, Paris, Vilo jeunesse, coll. « Si le monde m'était conté », 2006, 92 p. (ISBN 2-7191-0798-0)
 Yves Pinguilly, L’histoire du pêcheur, Clichy, Éd. du Jasmin, 2007
 Yves Pinguilly, Les six frères et autres contes d’Afrique de l’Est, Paris, Oskar, 2008
-Yves Pinguilly, Bakari et ses dix frères, Paris, Belin, 2013
-Albums
-Yves Pinguilly, Escargot des villes et des champs, Paris, Messidor - la Farandole, coll. « Mille images », 1983
+Yves Pinguilly, Bakari et ses dix frères, Paris, Belin, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yves_Pinguilly</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yves_Pinguilly</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Yves Pinguilly, Escargot des villes et des champs, Paris, Messidor - la Farandole, coll. « Mille images », 1983
 Yves Pinguilly, Raconte-mois, Paris, Hachette, coll. « Le Livre de poche », 1988
 Yves Pinguilly, La coccinelle, Paris, Hachette, coll. « Cadou », 1991Titre de couverture : Trois coccinelles un point c’est tout
 Yves Pinguilly, Parasol plage, Paris, Casterman, coll. « Je commence à lire », 1992
@@ -670,20 +788,122 @@
 Yves Pinguilly, La grande fleur de Nkosazana et Dylan, Oskar, 2013
 Yves Pinguilly, La maîtresse ne danse plus, Rue du Monde, 2014
 Yves Pinguilly, Sans défense, Autrement , 2015
-Yves Pinguilly, Il était une fée, Le Buveur d'encre, 2015
-Art et poésie
-Yves Pinguilly (dir.), Il était une fois, les mots, Paris, La Farandole, 1981
+Yves Pinguilly, Il était une fée, Le Buveur d'encre, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yves_Pinguilly</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yves_Pinguilly</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Art et poésie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Yves Pinguilly (dir.), Il était une fois, les mots, Paris, La Farandole, 1981
 Yves Pinguilly, Il était une fois, Picasso, Paris, Messidor-La Farandole, 1984
 Yves Pinguilly, Léonard de Vinci : le peintre qui parlait aux oiseaux, Paris, Casterman, coll. « Le jardin des peintres », 1990
 Yves Pinguilly, Robert, Sonia Delaunay, la couleur à quatre mains, Paris, Casterman, coll. « Le jardin des peintres », 1992
 Yves Pinguilly, Auguste Herbin, "Vendredi 1", Paris, Centre Georges Pompidou, coll. « L’art en Jeu », 1994
 Yves Pinguilly (dir.), Jeux Jongleries Rimes, Paris, Somogy, 2000
-Yves Pinguilly, Paris Bon Bec : comptines, Forcalquier, le Sablier jeunesse, 2007
-Théâtre
-Yves Pinguilly, Les vagabonds du miroir, Paris, Jean Claude Simoën, coll. « Mise en pièces », 1977
-Yves Pinguilly, La Troisième chose extraordinaire de ce jour-là, Paris, Hachette, coll. « Bibliothèque rose », 1988
-Documentaire et essais
-Yves Pinguilly, Foot, Syros, coll les mini Syros, 1994
+Yves Pinguilly, Paris Bon Bec : comptines, Forcalquier, le Sablier jeunesse, 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yves_Pinguilly</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yves_Pinguilly</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Yves Pinguilly, Les vagabonds du miroir, Paris, Jean Claude Simoën, coll. « Mise en pièces », 1977
+Yves Pinguilly, La Troisième chose extraordinaire de ce jour-là, Paris, Hachette, coll. « Bibliothèque rose », 1988</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Yves_Pinguilly</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yves_Pinguilly</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Documentaire et essais</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Yves Pinguilly, Foot, Syros, coll les mini Syros, 1994
 Yves Pinguilly, Aimé Césaire, Le nègre indélébile, Oskar, 2008
 Yves Pinguilly, Patrice Lumumba la parole assassinée, Oskar, 2010
 Yves Pinguilly, Toussaint Louverture, l'arbre noir de la liberté, Oskar, 2013
